--- a/TestData/LV_T2022_GiftLogGiftRequestProcessVerifyTheYearlyGiftAllowanceExceedLimitForTheNewGiftTotalNextYear.xlsx
+++ b/TestData/LV_T2022_GiftLogGiftRequestProcessVerifyTheYearlyGiftAllowanceExceedLimitForTheNewGiftTotalNextYear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA4168-B1FD-4BDF-A6C8-6CE6A2F849C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15697A7-4488-4532-8668-1D0A93C5A85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -135,10 +135,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Melissa Zatta</t>
-  </si>
-  <si>
     <t>Julie Carthane</t>
+  </si>
+  <si>
+    <t>Aja Mount</t>
   </si>
 </sst>
 </file>
@@ -471,17 +471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -489,8 +489,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -511,14 +511,14 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -533,25 +533,25 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -565,28 +565,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -633,11 +633,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
